--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mmrn2-Cd248.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.2654234684855</v>
+        <v>27.10983833333333</v>
       </c>
       <c r="H2">
-        <v>10.2654234684855</v>
+        <v>81.329515</v>
       </c>
       <c r="I2">
-        <v>0.832065818066552</v>
+        <v>0.9284397459331688</v>
       </c>
       <c r="J2">
-        <v>0.832065818066552</v>
+        <v>0.9284397459331687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.23822855768276</v>
+        <v>1.688919666666667</v>
       </c>
       <c r="N2">
-        <v>1.23822855768276</v>
+        <v>5.066759</v>
       </c>
       <c r="O2">
-        <v>0.01520707648647639</v>
+        <v>0.02013910563427162</v>
       </c>
       <c r="P2">
-        <v>0.01520707648647639</v>
+        <v>0.02013910563427162</v>
       </c>
       <c r="Q2">
-        <v>12.71094049538556</v>
+        <v>45.78633912132056</v>
       </c>
       <c r="R2">
-        <v>12.71094049538556</v>
+        <v>412.077052091885</v>
       </c>
       <c r="S2">
-        <v>0.0126532885371206</v>
+        <v>0.01869794611840439</v>
       </c>
       <c r="T2">
-        <v>0.0126532885371206</v>
+        <v>0.01869794611840438</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.2654234684855</v>
+        <v>27.10983833333333</v>
       </c>
       <c r="H3">
-        <v>10.2654234684855</v>
+        <v>81.329515</v>
       </c>
       <c r="I3">
-        <v>0.832065818066552</v>
+        <v>0.9284397459331688</v>
       </c>
       <c r="J3">
-        <v>0.832065818066552</v>
+        <v>0.9284397459331687</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>72.9711425836871</v>
+        <v>74.83790066666667</v>
       </c>
       <c r="N3">
-        <v>72.9711425836871</v>
+        <v>224.513702</v>
       </c>
       <c r="O3">
-        <v>0.8961816780032693</v>
+        <v>0.8923860718300156</v>
       </c>
       <c r="P3">
-        <v>0.8961816780032693</v>
+        <v>0.8923860718300156</v>
       </c>
       <c r="Q3">
-        <v>749.0796796007832</v>
+        <v>2028.843388279392</v>
       </c>
       <c r="R3">
-        <v>749.0796796007832</v>
+        <v>18259.59049451453</v>
       </c>
       <c r="S3">
-        <v>0.7456821410440456</v>
+        <v>0.8285266978041582</v>
       </c>
       <c r="T3">
-        <v>0.7456821410440456</v>
+        <v>0.8285266978041581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.2654234684855</v>
+        <v>27.10983833333333</v>
       </c>
       <c r="H4">
-        <v>10.2654234684855</v>
+        <v>81.329515</v>
       </c>
       <c r="I4">
-        <v>0.832065818066552</v>
+        <v>0.9284397459331688</v>
       </c>
       <c r="J4">
-        <v>0.832065818066552</v>
+        <v>0.9284397459331687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.21512611712117</v>
+        <v>7.335874333333334</v>
       </c>
       <c r="N4">
-        <v>7.21512611712117</v>
+        <v>22.007623</v>
       </c>
       <c r="O4">
-        <v>0.08861124551025422</v>
+        <v>0.08747482253571279</v>
       </c>
       <c r="P4">
-        <v>0.08861124551025422</v>
+        <v>0.08747482253571279</v>
       </c>
       <c r="Q4">
-        <v>74.06632497077831</v>
+        <v>198.8743672103161</v>
       </c>
       <c r="R4">
-        <v>74.06632497077831</v>
+        <v>1789.869304892845</v>
       </c>
       <c r="S4">
-        <v>0.07373038848538575</v>
+        <v>0.08121510201060621</v>
       </c>
       <c r="T4">
-        <v>0.07373038848538575</v>
+        <v>0.08121510201060619</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.17341240309285</v>
+        <v>1.190813333333333</v>
       </c>
       <c r="H5">
-        <v>1.17341240309285</v>
+        <v>3.57244</v>
       </c>
       <c r="I5">
-        <v>0.0951111616687097</v>
+        <v>0.04078218449921273</v>
       </c>
       <c r="J5">
-        <v>0.0951111616687097</v>
+        <v>0.04078218449921273</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.23822855768276</v>
+        <v>1.688919666666667</v>
       </c>
       <c r="N5">
-        <v>1.23822855768276</v>
+        <v>5.066759</v>
       </c>
       <c r="O5">
-        <v>0.01520707648647639</v>
+        <v>0.02013910563427162</v>
       </c>
       <c r="P5">
-        <v>0.01520707648647639</v>
+        <v>0.02013910563427162</v>
       </c>
       <c r="Q5">
-        <v>1.452952747448721</v>
+        <v>2.011188057995556</v>
       </c>
       <c r="R5">
-        <v>1.452952747448721</v>
+        <v>18.10069252196</v>
       </c>
       <c r="S5">
-        <v>0.00144636271021369</v>
+        <v>0.0008213167216259997</v>
       </c>
       <c r="T5">
-        <v>0.00144636271021369</v>
+        <v>0.0008213167216259997</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.17341240309285</v>
+        <v>1.190813333333333</v>
       </c>
       <c r="H6">
-        <v>1.17341240309285</v>
+        <v>3.57244</v>
       </c>
       <c r="I6">
-        <v>0.0951111616687097</v>
+        <v>0.04078218449921273</v>
       </c>
       <c r="J6">
-        <v>0.0951111616687097</v>
+        <v>0.04078218449921273</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>72.9711425836871</v>
+        <v>74.83790066666667</v>
       </c>
       <c r="N6">
-        <v>72.9711425836871</v>
+        <v>224.513702</v>
       </c>
       <c r="O6">
-        <v>0.8961816780032693</v>
+        <v>0.8923860718300156</v>
       </c>
       <c r="P6">
-        <v>0.8961816780032693</v>
+        <v>0.8923860718300156</v>
       </c>
       <c r="Q6">
-        <v>85.62524377555529</v>
+        <v>89.11796995254223</v>
       </c>
       <c r="R6">
-        <v>85.62524377555529</v>
+        <v>802.06172957288</v>
       </c>
       <c r="S6">
-        <v>0.08523688046110449</v>
+        <v>0.03639345342589941</v>
       </c>
       <c r="T6">
-        <v>0.08523688046110449</v>
+        <v>0.03639345342589941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.17341240309285</v>
+        <v>1.190813333333333</v>
       </c>
       <c r="H7">
-        <v>1.17341240309285</v>
+        <v>3.57244</v>
       </c>
       <c r="I7">
-        <v>0.0951111616687097</v>
+        <v>0.04078218449921273</v>
       </c>
       <c r="J7">
-        <v>0.0951111616687097</v>
+        <v>0.04078218449921273</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.21512611712117</v>
+        <v>7.335874333333334</v>
       </c>
       <c r="N7">
-        <v>7.21512611712117</v>
+        <v>22.007623</v>
       </c>
       <c r="O7">
-        <v>0.08861124551025422</v>
+        <v>0.08747482253571279</v>
       </c>
       <c r="P7">
-        <v>0.08861124551025422</v>
+        <v>0.08747482253571279</v>
       </c>
       <c r="Q7">
-        <v>8.466318475709137</v>
+        <v>8.735656967791112</v>
       </c>
       <c r="R7">
-        <v>8.466318475709137</v>
+        <v>78.62091271012001</v>
       </c>
       <c r="S7">
-        <v>0.008427918497391515</v>
+        <v>0.003567414351687331</v>
       </c>
       <c r="T7">
-        <v>0.008427918497391515</v>
+        <v>0.003567414351687331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.89843750943732</v>
+        <v>0.8986996666666666</v>
       </c>
       <c r="H8">
-        <v>0.89843750943732</v>
+        <v>2.696099</v>
       </c>
       <c r="I8">
-        <v>0.07282302026473826</v>
+        <v>0.03077806956761847</v>
       </c>
       <c r="J8">
-        <v>0.07282302026473826</v>
+        <v>0.03077806956761847</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.23822855768276</v>
+        <v>1.688919666666667</v>
       </c>
       <c r="N8">
-        <v>1.23822855768276</v>
+        <v>5.066759</v>
       </c>
       <c r="O8">
-        <v>0.01520707648647639</v>
+        <v>0.02013910563427162</v>
       </c>
       <c r="P8">
-        <v>0.01520707648647639</v>
+        <v>0.02013910563427162</v>
       </c>
       <c r="Q8">
-        <v>1.112470981478664</v>
+        <v>1.517831541460111</v>
       </c>
       <c r="R8">
-        <v>1.112470981478664</v>
+        <v>13.660483873141</v>
       </c>
       <c r="S8">
-        <v>0.001107425239142095</v>
+        <v>0.000619842794241229</v>
       </c>
       <c r="T8">
-        <v>0.001107425239142095</v>
+        <v>0.000619842794241229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.89843750943732</v>
+        <v>0.8986996666666666</v>
       </c>
       <c r="H9">
-        <v>0.89843750943732</v>
+        <v>2.696099</v>
       </c>
       <c r="I9">
-        <v>0.07282302026473826</v>
+        <v>0.03077806956761847</v>
       </c>
       <c r="J9">
-        <v>0.07282302026473826</v>
+        <v>0.03077806956761847</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>72.9711425836871</v>
+        <v>74.83790066666667</v>
       </c>
       <c r="N9">
-        <v>72.9711425836871</v>
+        <v>224.513702</v>
       </c>
       <c r="O9">
-        <v>0.8961816780032693</v>
+        <v>0.8923860718300156</v>
       </c>
       <c r="P9">
-        <v>0.8961816780032693</v>
+        <v>0.8923860718300156</v>
       </c>
       <c r="Q9">
-        <v>65.56001160368341</v>
+        <v>67.25679638316645</v>
       </c>
       <c r="R9">
-        <v>65.56001160368341</v>
+        <v>605.3111674484981</v>
       </c>
       <c r="S9">
-        <v>0.06526265649811921</v>
+        <v>0.027465920599958</v>
       </c>
       <c r="T9">
-        <v>0.06526265649811921</v>
+        <v>0.027465920599958</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.89843750943732</v>
+        <v>0.8986996666666666</v>
       </c>
       <c r="H10">
-        <v>0.89843750943732</v>
+        <v>2.696099</v>
       </c>
       <c r="I10">
-        <v>0.07282302026473826</v>
+        <v>0.03077806956761847</v>
       </c>
       <c r="J10">
-        <v>0.07282302026473826</v>
+        <v>0.03077806956761847</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.21512611712117</v>
+        <v>7.335874333333334</v>
       </c>
       <c r="N10">
-        <v>7.21512611712117</v>
+        <v>22.007623</v>
       </c>
       <c r="O10">
-        <v>0.08861124551025422</v>
+        <v>0.08747482253571279</v>
       </c>
       <c r="P10">
-        <v>0.08861124551025422</v>
+        <v>0.08747482253571279</v>
       </c>
       <c r="Q10">
-        <v>6.482339938942506</v>
+        <v>6.592747818075222</v>
       </c>
       <c r="R10">
-        <v>6.482339938942506</v>
+        <v>59.334730362677</v>
       </c>
       <c r="S10">
-        <v>0.006452938527476941</v>
+        <v>0.002692306173419248</v>
       </c>
       <c r="T10">
-        <v>0.006452938527476941</v>
+        <v>0.002692306173419248</v>
       </c>
     </row>
   </sheetData>
